--- a/UnitTests/Tests/Date.xlsx
+++ b/UnitTests/Tests/Date.xlsx
@@ -1300,15 +1300,15 @@
         <v>1</v>
       </c>
       <c r="C39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>PASS</v>
+        <v>FAIL</v>
       </c>
       <c r="E39" t="b">
         <f>_xll.qlECBIsECBdate(25569)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">

--- a/UnitTests/Tests/Date.xlsx
+++ b/UnitTests/Tests/Date.xlsx
@@ -1126,15 +1126,15 @@
         <v>25569</v>
       </c>
       <c r="C30">
-        <v>38371</v>
+        <v>25569</v>
       </c>
       <c r="D30" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
+        <v>PASS</v>
       </c>
       <c r="E30">
         <f>_xll.qlECBKnownDates()</f>
-        <v>38371</v>
+        <v>25569</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1300,15 +1300,15 @@
         <v>1</v>
       </c>
       <c r="C39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
+        <v>PASS</v>
       </c>
       <c r="E39" t="b">
         <f>_xll.qlECBIsECBdate(25569)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">

--- a/UnitTests/Tests/Date.xlsx
+++ b/UnitTests/Tests/Date.xlsx
@@ -1123,10 +1123,10 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>25569</v>
+        <v>38371</v>
       </c>
       <c r="C30">
-        <v>25569</v>
+        <v>38371</v>
       </c>
       <c r="D30" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1134,7 +1134,7 @@
       </c>
       <c r="E30">
         <f>_xll.qlECBKnownDates()</f>
-        <v>25569</v>
+        <v>38371</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1300,15 +1300,15 @@
         <v>1</v>
       </c>
       <c r="C39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>PASS</v>
+        <v>FAIL</v>
       </c>
       <c r="E39" t="b">
         <f>_xll.qlECBIsECBdate(25569)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">

--- a/UnitTests/Tests/Date.xlsx
+++ b/UnitTests/Tests/Date.xlsx
@@ -1126,15 +1126,15 @@
         <v>38371</v>
       </c>
       <c r="C30">
-        <v>38371</v>
+        <v>25569</v>
       </c>
       <c r="D30" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>PASS</v>
+        <v>FAIL</v>
       </c>
       <c r="E30">
         <f>_xll.qlECBKnownDates()</f>
-        <v>38371</v>
+        <v>25569</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1300,15 +1300,15 @@
         <v>1</v>
       </c>
       <c r="C39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
+        <v>PASS</v>
       </c>
       <c r="E39" t="b">
         <f>_xll.qlECBIsECBdate(25569)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">

--- a/UnitTests/Tests/Date.xlsx
+++ b/UnitTests/Tests/Date.xlsx
@@ -1297,14 +1297,14 @@
         <v>44</v>
       </c>
       <c r="B39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39" t="b">
         <v>1</v>
       </c>
       <c r="D39" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>PASS</v>
+        <v>FAIL</v>
       </c>
       <c r="E39" t="b">
         <f>_xll.qlECBIsECBdate(25569)</f>

--- a/UnitTests/Tests/Date.xlsx
+++ b/UnitTests/Tests/Date.xlsx
@@ -864,7 +864,7 @@
         <v>PASS</v>
       </c>
       <c r="E16" t="str">
-        <f>_xll.qlIMMCode(42081)</f>
+        <f>_xll.qlIMMcode(42081)</f>
         <v>H5</v>
       </c>
       <c r="G16" s="5">
@@ -924,7 +924,7 @@
         <v>PASS</v>
       </c>
       <c r="E19">
-        <f>_xll.qlIMMDate("H5")</f>
+        <f>_xll.qlIMMdate("H5")</f>
         <v>45735</v>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
         <v>PASS</v>
       </c>
       <c r="E24" t="str">
-        <f>_xll.qlASXCode(42713)</f>
+        <f>_xll.qlASXcode(42713)</f>
         <v>Z6</v>
       </c>
     </row>
@@ -1076,7 +1076,7 @@
         <v>PASS</v>
       </c>
       <c r="E27">
-        <f>_xll.qlASXDate("H5")</f>
+        <f>_xll.qlASXdate("H5")</f>
         <v>45730</v>
       </c>
     </row>
@@ -1123,14 +1123,14 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>38371</v>
+        <v>25569</v>
       </c>
       <c r="C30">
         <v>25569</v>
       </c>
       <c r="D30" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
+        <v>PASS</v>
       </c>
       <c r="E30">
         <f>_xll.qlECBKnownDates()</f>
@@ -1190,7 +1190,7 @@
         <v>PASS</v>
       </c>
       <c r="E33">
-        <f>_xll.qlECBDate2("january",1971)</f>
+        <f>_xll.qlECBdate2("january",1971)</f>
         <v>38371</v>
       </c>
     </row>
@@ -1209,7 +1209,7 @@
         <v>PASS</v>
       </c>
       <c r="E34">
-        <f>_xll.qlECBDate("MAR10")</f>
+        <f>_xll.qlECBdate("MAR10")</f>
         <v>40247</v>
       </c>
     </row>
@@ -1228,7 +1228,7 @@
         <v>PASS</v>
       </c>
       <c r="E35" t="str">
-        <f>_xll.qlECBCode(40247)</f>
+        <f>_xll.qlECBcode(40247)</f>
         <v>MAR10</v>
       </c>
       <c r="G35" s="5">
@@ -1297,14 +1297,14 @@
         <v>44</v>
       </c>
       <c r="B39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39" t="b">
         <v>1</v>
       </c>
       <c r="D39" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
+        <v>PASS</v>
       </c>
       <c r="E39" t="b">
         <f>_xll.qlECBIsECBdate(25569)</f>

--- a/UnitTests/Tests/Date.xlsx
+++ b/UnitTests/Tests/Date.xlsx
@@ -603,7 +603,7 @@
         <v>52</v>
       </c>
       <c r="D3" s="3" t="str">
-        <f t="shared" ref="D3:D42" si="0">IF(B3=C3,"PASS","FAIL")</f>
+        <f>IF(ISERROR(B3),"ERROR",IF(ISERROR(C3),"FAIL",IF(B3=C3,"PASS","FAIL")))</f>
         <v>PASS</v>
       </c>
       <c r="E3" t="str">
@@ -622,7 +622,7 @@
         <v>48</v>
       </c>
       <c r="D4" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D4:D42" si="0">IF(ISERROR(B4),"ERROR",IF(ISERROR(C4),"FAIL",IF(B4=C4,"PASS","FAIL")))</f>
         <v>PASS</v>
       </c>
       <c r="E4" t="str">
@@ -1240,18 +1240,18 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>42718</v>
+        <v>42669</v>
       </c>
       <c r="C36">
         <v>42718</v>
       </c>
       <c r="D36" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>PASS</v>
+        <v>FAIL</v>
       </c>
       <c r="E36">
         <f>_xll.qlECBNextDate()</f>
-        <v>42718</v>
+        <v>42669</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -1278,18 +1278,18 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>42718</v>
+        <v>42669</v>
       </c>
       <c r="C38">
         <v>42718</v>
       </c>
       <c r="D38" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>PASS</v>
+        <v>FAIL</v>
       </c>
       <c r="E38">
         <f>_xll.qlECBNextDates(,1)</f>
-        <v>42718</v>
+        <v>42669</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -1335,18 +1335,18 @@
         <v>46</v>
       </c>
       <c r="B41" s="6">
-        <v>42720</v>
+        <v>42659</v>
       </c>
       <c r="C41" s="6">
         <v>42720</v>
       </c>
       <c r="D41" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>PASS</v>
+        <v>FAIL</v>
       </c>
       <c r="E41" t="str">
         <f>_xll.qlECBNextCode(,1)</f>
-        <v>DEC16</v>
+        <v>OCT16</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">

--- a/UnitTests/Tests/Date.xlsx
+++ b/UnitTests/Tests/Date.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\reposit\QuantLibXL\UnitTests\Tests\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
   <definedNames>
     <definedName name="UNIT_TEST" localSheetId="0">Sheet1!$A$3:$E$42</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027" calcMode="manual"/>
 </workbook>
 </file>
 
@@ -183,10 +188,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -231,7 +236,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -242,12 +247,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Milliers" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -256,12 +261,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -303,7 +311,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -336,9 +344,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -371,6 +396,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -546,13 +588,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
@@ -606,9 +648,9 @@
         <f>IF(ISERROR(B3),"ERROR",IF(ISERROR(C3),"FAIL",IF(B3=C3,"PASS","FAIL")))</f>
         <v>PASS</v>
       </c>
-      <c r="E3" t="str">
-        <f>_xll.qlPeriodFromFrequency("daily")</f>
-        <v>1D</v>
+      <c r="E3" t="e">
+        <f ca="1">_xll.qlPeriodFromFrequency("daily")</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -625,9 +667,9 @@
         <f t="shared" ref="D4:D42" si="0">IF(ISERROR(B4),"ERROR",IF(ISERROR(C4),"FAIL",IF(B4=C4,"PASS","FAIL")))</f>
         <v>PASS</v>
       </c>
-      <c r="E4" t="str">
-        <f>_xll.qlFrequencyFromPeriod("1d")</f>
-        <v>Daily</v>
+      <c r="E4" t="e">
+        <f ca="1">_xll.qlFrequencyFromPeriod("1d")</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -644,9 +686,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E5" t="b">
-        <f>_xll.qlPeriodLessThan("1d","2d")</f>
-        <v>1</v>
+      <c r="E5" t="e">
+        <f ca="1">_xll.qlPeriodLessThan("1d","2d")</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -663,9 +705,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E6" t="str">
-        <f>_xll.qlPeriodEquivalent("1Y-1M")</f>
-        <v>11M</v>
+      <c r="E6" t="e">
+        <f ca="1">_xll.qlPeriodEquivalent("1Y-1M")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F6" s="4"/>
     </row>
@@ -683,9 +725,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E7">
-        <f>_xll.qlDateMinDate()</f>
-        <v>367</v>
+      <c r="E7" t="e">
+        <f ca="1">_xll.qlDateMinDate()</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -702,9 +744,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E8">
-        <f>_xll.qlDateMaxDate()</f>
-        <v>109574</v>
+      <c r="E8" t="e">
+        <f ca="1">_xll.qlDateMaxDate()</f>
+        <v>#NAME?</v>
       </c>
       <c r="G8" s="5">
         <v>25569</v>
@@ -724,9 +766,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E9" t="b">
-        <f>_xll.qlDateIsLeap(1970)</f>
-        <v>0</v>
+      <c r="E9" t="e">
+        <f ca="1">_xll.qlDateIsLeap(1970)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -743,9 +785,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E10">
-        <f>_xll.qlDateEndOfMonth(25569)</f>
-        <v>25599</v>
+      <c r="E10" t="e">
+        <f ca="1">_xll.qlDateEndOfMonth(25569)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G10" s="5">
         <v>42005</v>
@@ -765,9 +807,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E11" t="b">
-        <f>_xll.qlDateIsEndOfMonth(25569)</f>
-        <v>0</v>
+      <c r="E11" t="e">
+        <f ca="1">_xll.qlDateIsEndOfMonth(25569)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G11" s="5">
         <v>42369</v>
@@ -787,9 +829,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E12">
-        <f>_xll.qlDateNextWeekday(25569,"Monday")</f>
-        <v>25573</v>
+      <c r="E12" t="e">
+        <f ca="1">_xll.qlDateNextWeekday(25569,"Monday")</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -806,9 +848,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E13">
-        <f>_xll.qlDateNthWeekday(4,"monday","january",1970)</f>
-        <v>25594</v>
+      <c r="E13" t="e">
+        <f ca="1">_xll.qlDateNthWeekday(4,"monday","january",1970)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -825,9 +867,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E14" t="b">
-        <f>_xll.qlIMMIsIMMdate(25569)</f>
-        <v>0</v>
+      <c r="E14" t="e">
+        <f ca="1">_xll.qlIMMIsIMMdate(25569)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -844,9 +886,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E15" t="b">
-        <f>_xll.qlIMMIsIMMcode(H6)</f>
-        <v>0</v>
+      <c r="E15" t="e">
+        <f ca="1">_xll.qlIMMIsIMMcode(H6)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -863,9 +905,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E16" t="str">
-        <f>_xll.qlIMMcode(42081)</f>
-        <v>H5</v>
+      <c r="E16" t="e">
+        <f ca="1">_xll.qlIMMcode(42081)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G16" s="5">
         <v>42081</v>
@@ -885,9 +927,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E17" t="str">
-        <f>_xll.qlIMMNextCode()</f>
-        <v>Z6</v>
+      <c r="E17" t="e">
+        <f ca="1">_xll.qlIMMNextCode()</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -904,9 +946,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E18" t="str">
-        <f>_xll.qlIMMNextCodes(,TRUE)</f>
-        <v>Z6</v>
+      <c r="E18" t="e">
+        <f ca="1">_xll.qlIMMNextCodes(,TRUE)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -923,9 +965,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E19">
-        <f>_xll.qlIMMdate("H5")</f>
-        <v>45735</v>
+      <c r="E19" t="e">
+        <f ca="1">_xll.qlIMMdate("H5")</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -942,9 +984,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E20">
-        <f>_xll.qlIMMNextDate()</f>
-        <v>42725</v>
+      <c r="E20" t="e">
+        <f ca="1">_xll.qlIMMNextDate()</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -961,9 +1003,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E21">
-        <f>_xll.qlIMMNextDates(,1)</f>
-        <v>42725</v>
+      <c r="E21" t="e">
+        <f ca="1">_xll.qlIMMNextDates(,1)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -980,9 +1022,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E22" t="b">
-        <f>_xll.qlASXIsASXdate(25569)</f>
-        <v>0</v>
+      <c r="E22" t="e">
+        <f ca="1">_xll.qlASXIsASXdate(25569)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -999,9 +1041,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E23" t="b">
-        <f>_xll.qlASXIsASXcode(M5)</f>
-        <v>0</v>
+      <c r="E23" t="e">
+        <f ca="1">_xll.qlASXIsASXcode(M5)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1018,9 +1060,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E24" t="str">
-        <f>_xll.qlASXcode(42713)</f>
-        <v>Z6</v>
+      <c r="E24" t="e">
+        <f ca="1">_xll.qlASXcode(42713)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1037,9 +1079,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E25" t="str">
-        <f>_xll.qlASXNextCode()</f>
-        <v>Z6</v>
+      <c r="E25" t="e">
+        <f ca="1">_xll.qlASXNextCode()</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1056,9 +1098,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E26" t="str">
-        <f>_xll.qlASXNextCodes(,1)</f>
-        <v>Z6</v>
+      <c r="E26" t="e">
+        <f ca="1">_xll.qlASXNextCodes(,1)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1075,9 +1117,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E27">
-        <f>_xll.qlASXdate("H5")</f>
-        <v>45730</v>
+      <c r="E27" t="e">
+        <f ca="1">_xll.qlASXdate("H5")</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1094,9 +1136,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E28">
-        <f>_xll.qlASXNextDate()</f>
-        <v>42713</v>
+      <c r="E28" t="e">
+        <f ca="1">_xll.qlASXNextDate()</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1113,9 +1155,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E29">
-        <f>_xll.qlASXNextDates(,1)</f>
-        <v>42713</v>
+      <c r="E29" t="e">
+        <f ca="1">_xll.qlASXNextDates(,1)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1132,9 +1174,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E30">
-        <f>_xll.qlECBKnownDates()</f>
-        <v>25569</v>
+      <c r="E30" t="e">
+        <f ca="1">_xll.qlECBKnownDates()</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1151,9 +1193,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E31" t="b">
-        <f>_xll.qlECBAddDate(25569)</f>
-        <v>1</v>
+      <c r="E31" t="e">
+        <f ca="1">_xll.qlECBAddDate(25569)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1170,9 +1212,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E32" t="b">
-        <f>_xll.qlECBRemoveDate(25570)</f>
-        <v>1</v>
+      <c r="E32" t="e">
+        <f ca="1">_xll.qlECBRemoveDate(25570)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1189,9 +1231,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E33">
-        <f>_xll.qlECBdate2("january",1971)</f>
-        <v>38371</v>
+      <c r="E33" t="e">
+        <f ca="1">_xll.qlECBdate2("january",1971)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1208,9 +1250,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E34">
-        <f>_xll.qlECBdate("MAR10")</f>
-        <v>40247</v>
+      <c r="E34" t="e">
+        <f ca="1">_xll.qlECBdate("MAR10")</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -1227,9 +1269,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E35" t="str">
-        <f>_xll.qlECBcode(40247)</f>
-        <v>MAR10</v>
+      <c r="E35" t="e">
+        <f ca="1">_xll.qlECBcode(40247)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G35" s="5">
         <v>40247</v>
@@ -1249,9 +1291,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E36">
-        <f>_xll.qlECBNextDate()</f>
-        <v>42669</v>
+      <c r="E36" t="e">
+        <f ca="1">_xll.qlECBNextDate()</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -1268,9 +1310,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E37">
-        <f>_xll.qlECBNextDate2("MAR10")</f>
-        <v>40282</v>
+      <c r="E37" t="e">
+        <f ca="1">_xll.qlECBNextDate2("MAR10")</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -1287,9 +1329,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E38">
-        <f>_xll.qlECBNextDates(,1)</f>
-        <v>42669</v>
+      <c r="E38" t="e">
+        <f ca="1">_xll.qlECBNextDates(,1)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -1306,9 +1348,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E39" t="b">
-        <f>_xll.qlECBIsECBdate(25569)</f>
-        <v>1</v>
+      <c r="E39" t="e">
+        <f ca="1">_xll.qlECBIsECBdate(25569)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -1325,9 +1367,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E40" t="b">
-        <f>_xll.qlECBIsECBcode("MAR10")</f>
-        <v>1</v>
+      <c r="E40" t="e">
+        <f ca="1">_xll.qlECBIsECBcode("MAR10")</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -1344,9 +1386,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E41" t="str">
-        <f>_xll.qlECBNextCode(,1)</f>
-        <v>OCT16</v>
+      <c r="E41" t="e">
+        <f ca="1">_xll.qlECBNextCode(,1)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -1363,9 +1405,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E42" t="str">
-        <f>_xll.qlECBNextCode2("MAR10")</f>
-        <v>APR10</v>
+      <c r="E42" t="e">
+        <f ca="1">_xll.qlECBNextCode2("MAR10")</f>
+        <v>#NAME?</v>
       </c>
     </row>
   </sheetData>
@@ -1375,26 +1417,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
